--- a/medicine/Enfance/Pacotine/Pacotine.xlsx
+++ b/medicine/Enfance/Pacotine/Pacotine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pacotine, de son vrai nom Marianne Dubuis née le 14 juin 1982 à Charleroi (province de Hainaut), est une autrice de bande dessinée et illustratrice belge francophone.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marianne Dubuis naît le 14 juin 1982[1] à Charleroi[2].
-Elle se forme artistiquement à l'École nationale supérieure des arts visuels de La Cambre à Bruxelles en option cinéma d’animation[1]. Elle en sort diplômée[3].
-Elle travaille comme illustratrice pour la presse et pour des publications jeunesse et applique plusieurs techniques[3]. Avec Pauline Perrolet, elle réalise le premier tome de la série de bandes dessinées Mes psycho BD[4], sur les petits et grands enjeux psychologiques du quotidien[3] publiée aux Éditions Jungle, pour lesquelles elle dessine également le troisième volet de l'adaptation en bande dessinée de l'essai Les hommes viennent de Mars, les femmes viennent de Vénus de John Gray[3]. Elle réalise également la bande dessinée jeunesse Nanny Mandy[5] avec le scénariste Joris Chamblain pour Kennes Éditions de 2015 à 2020 et une intégrale en 2021[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marianne Dubuis naît le 14 juin 1982 à Charleroi.
+Elle se forme artistiquement à l'École nationale supérieure des arts visuels de La Cambre à Bruxelles en option cinéma d’animation. Elle en sort diplômée.
+Elle travaille comme illustratrice pour la presse et pour des publications jeunesse et applique plusieurs techniques. Avec Pauline Perrolet, elle réalise le premier tome de la série de bandes dessinées Mes psycho BD, sur les petits et grands enjeux psychologiques du quotidien publiée aux Éditions Jungle, pour lesquelles elle dessine également le troisième volet de l'adaptation en bande dessinée de l'essai Les hommes viennent de Mars, les femmes viennent de Vénus de John Gray. Elle réalise également la bande dessinée jeunesse Nanny Mandy avec le scénariste Joris Chamblain pour Kennes Éditions de 2015 à 2020 et une intégrale en 2021.
 Comme illustratrice, elle réalise la série de livres jeunesse écrits par Catherine Kalengula publiés dans la collection « Bibliothèque rose » aux éditions Hachette Jeunesse depuis 2016.
-En 2023, elle réalise Sac'ados sur un scénario de Falzar aux mêmes éditions et qui met en scène quatre adolescents fréquentant le même établissement scolaire[3],[7].
-En outre, elle réalise l'affiche du 2e festival BD Cast'in bulles de Saint-Cast-le-Guildo en 2017[8].
+En 2023, elle réalise Sac'ados sur un scénario de Falzar aux mêmes éditions et qui met en scène quatre adolescents fréquentant le même établissement scolaire,.
+En outre, elle réalise l'affiche du 2e festival BD Cast'in bulles de Saint-Cast-le-Guildo en 2017.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle demeure à Sclayn en 2020[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle demeure à Sclayn en 2020.
 </t>
         </is>
       </c>
@@ -580,22 +596,181 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publications
-Mes psycho BD
-1. Débordée, moi ? Plus jamais ![4],[10], Éditions Jungle, Loverval, 4 septembre 2013Scénario : Pauline Perrolet - Dessin : Pacotine - Couleurs : quadrichromie -  (ISBN 978-2-8222-0399-9),réédition en 2014 dans le cadre des 48hBD.  (ISBN 978-2-8222-0804-8)
-2. Bye bye les complexes !, Éditions Jungle !, Loverval, 2 avril 2014Scénario : Sabine Duhamel - Dessin : Pacotine - Couleurs : quadrichromie -  (ISBN 978-2-8222-0423-1)
-Les Hommes viennent de Mars, les femmes viennent de Vénus
-3. Réussissent ensemble !, Éditions Jungle/Michel Laffont, Loverval, 29 septembre 2014Scénario : Jif - Dessin : Pacotine - Couleurs : Nathalie Jomard -  (ISBN 2822203989),Adaptation de John Gray.
-Nanny Mandy
-1. Mathis et le Grand Trésor[5], Kennes Éditions, Gerpinnes, 16 septembre 2015Scénario : Joris Chamblain - Dessin : Pacotine - Couleurs : Virginie Blancher -  (ISBN 9782875801050)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mes psycho BD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1. Débordée, moi ? Plus jamais ! Éditions Jungle, Loverval, 4 septembre 2013Scénario : Pauline Perrolet - Dessin : Pacotine - Couleurs : quadrichromie -  (ISBN 978-2-8222-0399-9),réédition en 2014 dans le cadre des 48hBD.  (ISBN 978-2-8222-0804-8)
+2. Bye bye les complexes !, Éditions Jungle !, Loverval, 2 avril 2014Scénario : Sabine Duhamel - Dessin : Pacotine - Couleurs : quadrichromie -  (ISBN 978-2-8222-0423-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pacotine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pacotine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Les Hommes viennent de Mars, les femmes viennent de Vénus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3. Réussissent ensemble !, Éditions Jungle/Michel Laffont, Loverval, 29 septembre 2014Scénario : Jif - Dessin : Pacotine - Couleurs : Nathalie Jomard -  (ISBN 2822203989),Adaptation de John Gray.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pacotine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pacotine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nanny Mandy</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1. Mathis et le Grand Trésor, Kennes Éditions, Gerpinnes, 16 septembre 2015Scénario : Joris Chamblain - Dessin : Pacotine - Couleurs : Virginie Blancher -  (ISBN 9782875801050)
 2. Antoine aime tout ce qui brille, Kennes Éditions, Gerpinnes, 21 septembre 2016Scénario : Joris Chamblain - Dessin : Pacotine - Couleurs : Virginie Blancher -  (ISBN 9782875802668)
 3. Dans le cœur de Célia, Kennes Éditions, Gerpinnes, 8 janvier 2020Scénario : Joris Chamblain - Dessin : Pacotine - Couleurs : Virginie Blancher -  (ISBN 9782875806543)
-Int. Nanny Mandy[6], Kennes Éditions, Gerpinnes, 8 septembre 2021Scénario : Joris Chamblain - Dessin : Pacotine - Couleurs : Virginie Blancher -  (ISBN 978-2-380-75490-2)
-Sac'ados
-1. Sac'ados, Kennes Éditions, Gerpinnes, 6 septembre 2023Scénario : Falzar - Dessin : Pacotine - Couleurs : quadrichromie -  (ISBN 978-2-380-75940-2)
-Illustrations livres Jeunesse
-Ma vie, mes copines
-Liste non exhaustive
+Int. Nanny Mandy, Kennes Éditions, Gerpinnes, 8 septembre 2021Scénario : Joris Chamblain - Dessin : Pacotine - Couleurs : Virginie Blancher -  (ISBN 978-2-380-75490-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pacotine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pacotine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sac'ados</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1. Sac'ados, Kennes Éditions, Gerpinnes, 6 septembre 2023Scénario : Falzar - Dessin : Pacotine - Couleurs : quadrichromie -  (ISBN 978-2-380-75940-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pacotine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pacotine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustrations livres Jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ma vie, mes copines</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liste non exhaustive
 1. Vive la rentrée !, Catherine Kalengula (textes), Hachette Jeunesse, coll. « Bibliothèque rose », 14 septembre 2016  (ISBN 9782011801005) (OCLC 1198376330)
 2. Le Délégué de classe, Catherine Kalengula (textes), Hachette Jeunesse, 1er août 2018 (ASIN B07G4B245S)
 3. Le Voyage scolaire, Catherine Kalengula (textes), Hachette Jeunesse, 1er août 2018 (ASIN B07G4KN3DS)
